--- a/data/142/STANOR/10722 General government. Taxes and social security contributions.xlsx
+++ b/data/142/STANOR/10722 General government. Taxes and social security contributions.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>10722: General government. Taxes and social security contributions (NOK million), by sector, type, year and contents</x:t>
   </x:si>
@@ -137,6 +137,9 @@
     <x:t>2020</x:t>
   </x:si>
   <x:si>
+    <x:t>2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>Taxes</x:t>
   </x:si>
   <x:si>
@@ -305,13 +308,13 @@
     <x:t>From 2015, Tax on dividends paid to foreign shareholders is adjusted to account for repayments to shareholders exempted from this tax. In 2015, the sum of repayments was approximately NOK 1.6 billion.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Taxes:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211202 08:00</x:t>
+    <x:t>20220303 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -751,22 +754,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AB148"/>
+  <x:dimension ref="A1:AC148"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="28" width="8.210625" style="0" customWidth="1"/>
+    <x:col min="1" max="29" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:28">
+    <x:row r="1" spans="1:29">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:28">
+    <x:row r="3" spans="1:29">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -845,93 +847,99 @@
       <x:c r="AB3" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:28">
+      <x:c r="AC3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:29">
       <x:c r="C4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:28">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AC4" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:29">
       <x:c r="A5" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>79495</x:v>
@@ -1009,12 +1017,15 @@
         <x:v>415563</x:v>
       </x:c>
       <x:c r="AB5" s="3" t="n">
-        <x:v>290879</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:28">
+        <x:v>307423</x:v>
+      </x:c>
+      <x:c r="AC5" s="3" t="n">
+        <x:v>608029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:29">
       <x:c r="B6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>54251</x:v>
@@ -1092,12 +1103,15 @@
         <x:v>288497</x:v>
       </x:c>
       <x:c r="AB6" s="3" t="n">
-        <x:v>280939</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:28">
+        <x:v>282683</x:v>
+      </x:c>
+      <x:c r="AC6" s="3" t="n">
+        <x:v>304714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:29">
       <x:c r="B7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>44107</x:v>
@@ -1175,12 +1189,15 @@
         <x:v>198516</x:v>
       </x:c>
       <x:c r="AB7" s="3" t="n">
-        <x:v>200155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:28">
+        <x:v>200300</x:v>
+      </x:c>
+      <x:c r="AC7" s="3" t="n">
+        <x:v>200714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:29">
       <x:c r="B8" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>8947</x:v>
@@ -1258,12 +1275,15 @@
         <x:v>82431</x:v>
       </x:c>
       <x:c r="AB8" s="3" t="n">
-        <x:v>75675</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:28">
+        <x:v>77032</x:v>
+      </x:c>
+      <x:c r="AC8" s="3" t="n">
+        <x:v>95480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:29">
       <x:c r="B9" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>1199</x:v>
@@ -1341,12 +1361,15 @@
         <x:v>3322</x:v>
       </x:c>
       <x:c r="AB9" s="3" t="n">
-        <x:v>3253</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:28">
+        <x:v>3495</x:v>
+      </x:c>
+      <x:c r="AC9" s="3" t="n">
+        <x:v>3276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:29">
       <x:c r="B10" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>0</x:v>
@@ -1426,10 +1449,13 @@
       <x:c r="AB10" s="3" t="n">
         <x:v>1855</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:28">
+      <x:c r="AC10" s="3" t="n">
+        <x:v>5244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:29">
       <x:c r="B11" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>20056</x:v>
@@ -1507,12 +1533,15 @@
         <x:v>114241</x:v>
       </x:c>
       <x:c r="AB11" s="3" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:28">
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="AC11" s="3" t="n">
+        <x:v>295000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:29">
       <x:c r="B12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>8767</x:v>
@@ -1590,12 +1619,15 @@
         <x:v>34034</x:v>
       </x:c>
       <x:c r="AB12" s="3" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:28">
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="AC12" s="3" t="n">
+        <x:v>115400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:29">
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>11289</x:v>
@@ -1675,10 +1707,13 @@
       <x:c r="AB13" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:28">
+      <x:c r="AC13" s="3" t="n">
+        <x:v>179600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:29">
       <x:c r="B14" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>5188</x:v>
@@ -1758,10 +1793,13 @@
       <x:c r="AB14" s="3" t="n">
         <x:v>7941</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:28">
+      <x:c r="AC14" s="3" t="n">
+        <x:v>8315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:29">
       <x:c r="B15" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>2664</x:v>
@@ -1841,10 +1879,13 @@
       <x:c r="AB15" s="3" t="n">
         <x:v>7640</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:28">
+      <x:c r="AC15" s="3" t="n">
+        <x:v>8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:29">
       <x:c r="B16" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>2081</x:v>
@@ -1924,10 +1965,13 @@
       <x:c r="AB16" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:28">
+      <x:c r="AC16" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:29">
       <x:c r="B17" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>0</x:v>
@@ -2007,10 +2051,13 @@
       <x:c r="AB17" s="3" t="n">
         <x:v>192</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:28">
+      <x:c r="AC17" s="3" t="n">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:29">
       <x:c r="B18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>443</x:v>
@@ -2090,10 +2137,13 @@
       <x:c r="AB18" s="3" t="n">
         <x:v>108</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:28">
+      <x:c r="AC18" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:29">
       <x:c r="B19" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>141093</x:v>
@@ -2173,10 +2223,13 @@
       <x:c r="AB19" s="3" t="n">
         <x:v>428137</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:28">
+      <x:c r="AC19" s="3" t="n">
+        <x:v>455443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:29">
       <x:c r="B20" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>88609</x:v>
@@ -2256,10 +2309,13 @@
       <x:c r="AB20" s="3" t="n">
         <x:v>311600</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:28">
+      <x:c r="AC20" s="3" t="n">
+        <x:v>338000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:29">
       <x:c r="B21" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>2718</x:v>
@@ -2339,10 +2395,13 @@
       <x:c r="AB21" s="3" t="n">
         <x:v>3905</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:28">
+      <x:c r="AC21" s="3" t="n">
+        <x:v>4666</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:29">
       <x:c r="B22" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>2559</x:v>
@@ -2422,10 +2481,13 @@
       <x:c r="AB22" s="3" t="n">
         <x:v>5714</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:28">
+      <x:c r="AC22" s="3" t="n">
+        <x:v>5302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:29">
       <x:c r="B23" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>22319</x:v>
@@ -2505,10 +2567,13 @@
       <x:c r="AB23" s="3" t="n">
         <x:v>26721</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:28">
+      <x:c r="AC23" s="3" t="n">
+        <x:v>25894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:29">
       <x:c r="B24" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>7484</x:v>
@@ -2588,10 +2653,13 @@
       <x:c r="AB24" s="3" t="n">
         <x:v>9329</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:28">
+      <x:c r="AC24" s="3" t="n">
+        <x:v>7813</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:29">
       <x:c r="B25" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>561</x:v>
@@ -2671,10 +2739,13 @@
       <x:c r="AB25" s="3" t="n">
         <x:v>1602</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:28">
+      <x:c r="AC25" s="3" t="n">
+        <x:v>1661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:29">
       <x:c r="B26" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>1100</x:v>
@@ -2754,10 +2825,13 @@
       <x:c r="AB26" s="3" t="n">
         <x:v>1465</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:28">
+      <x:c r="AC26" s="3" t="n">
+        <x:v>1471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:29">
       <x:c r="B27" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>9935</x:v>
@@ -2837,10 +2911,13 @@
       <x:c r="AB27" s="3" t="n">
         <x:v>4401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:28">
+      <x:c r="AC27" s="3" t="n">
+        <x:v>4431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:29">
       <x:c r="B28" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>2804</x:v>
@@ -2920,10 +2997,13 @@
       <x:c r="AB28" s="3" t="n">
         <x:v>9588</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:28">
+      <x:c r="AC28" s="3" t="n">
+        <x:v>10184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:29">
       <x:c r="B29" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>6566</x:v>
@@ -3003,10 +3083,13 @@
       <x:c r="AB29" s="3" t="n">
         <x:v>26938</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:28">
+      <x:c r="AC29" s="3" t="n">
+        <x:v>29120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:29">
       <x:c r="B30" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>4773</x:v>
@@ -3086,10 +3169,13 @@
       <x:c r="AB30" s="3" t="n">
         <x:v>11322</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:28">
+      <x:c r="AC30" s="3" t="n">
+        <x:v>12071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:29">
       <x:c r="B31" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>1391</x:v>
@@ -3169,10 +3255,13 @@
       <x:c r="AB31" s="3" t="n">
         <x:v>1880</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:28">
+      <x:c r="AC31" s="3" t="n">
+        <x:v>1911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:29">
       <x:c r="B32" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>0</x:v>
@@ -3252,10 +3341,13 @@
       <x:c r="AB32" s="3" t="n">
         <x:v>8442</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:28">
+      <x:c r="AC32" s="3" t="n">
+        <x:v>9387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:29">
       <x:c r="B33" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>208</x:v>
@@ -3335,10 +3427,13 @@
       <x:c r="AB33" s="3" t="n">
         <x:v>2485</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:28">
+      <x:c r="AC33" s="3" t="n">
+        <x:v>2766</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:29">
       <x:c r="B34" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>0</x:v>
@@ -3418,10 +3513,13 @@
       <x:c r="AB34" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:28">
+      <x:c r="AC34" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:29">
       <x:c r="B35" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>0</x:v>
@@ -3501,10 +3599,13 @@
       <x:c r="AB35" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:28">
+      <x:c r="AC35" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:29">
       <x:c r="B36" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>0</x:v>
@@ -3584,10 +3685,13 @@
       <x:c r="AB36" s="3" t="n">
         <x:v>2376</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:28">
+      <x:c r="AC36" s="3" t="n">
+        <x:v>2495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:29">
       <x:c r="B37" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>15207</x:v>
@@ -3667,10 +3771,13 @@
       <x:c r="AB37" s="3" t="n">
         <x:v>37553</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:28">
+      <x:c r="AC37" s="3" t="n">
+        <x:v>34567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:29">
       <x:c r="B38" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>6315</x:v>
@@ -3750,10 +3857,13 @@
       <x:c r="AB38" s="3" t="n">
         <x:v>17976</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:28">
+      <x:c r="AC38" s="3" t="n">
+        <x:v>18276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:29">
       <x:c r="B39" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>5301</x:v>
@@ -3833,10 +3943,13 @@
       <x:c r="AB39" s="3" t="n">
         <x:v>9127</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:28">
+      <x:c r="AC39" s="3" t="n">
+        <x:v>9232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:29">
       <x:c r="B40" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>1514</x:v>
@@ -3916,10 +4029,13 @@
       <x:c r="AB40" s="3" t="n">
         <x:v>4777</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:28">
+      <x:c r="AC40" s="3" t="n">
+        <x:v>1125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:29">
       <x:c r="B41" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>115</x:v>
@@ -3999,10 +4115,13 @@
       <x:c r="AB41" s="3" t="n">
         <x:v>340</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:28">
+      <x:c r="AC41" s="3" t="n">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:29">
       <x:c r="B42" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>1962</x:v>
@@ -4082,10 +4201,13 @@
       <x:c r="AB42" s="3" t="n">
         <x:v>5332</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:28">
+      <x:c r="AC42" s="3" t="n">
+        <x:v>5577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:29">
       <x:c r="B43" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>0</x:v>
@@ -4165,10 +4287,13 @@
       <x:c r="AB43" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:28">
+      <x:c r="AC43" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:29">
       <x:c r="B44" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>3116</x:v>
@@ -4248,10 +4373,13 @@
       <x:c r="AB44" s="3" t="n">
         <x:v>15706</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:28">
+      <x:c r="AC44" s="3" t="n">
+        <x:v>17895</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:29">
       <x:c r="B45" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>1350</x:v>
@@ -4331,10 +4459,13 @@
       <x:c r="AB45" s="3" t="n">
         <x:v>11352</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:28">
+      <x:c r="AC45" s="3" t="n">
+        <x:v>13196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:29">
       <x:c r="B46" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>975</x:v>
@@ -4414,10 +4545,13 @@
       <x:c r="AB46" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:28">
+      <x:c r="AC46" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:29">
       <x:c r="B47" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>975</x:v>
@@ -4497,10 +4631,13 @@
       <x:c r="AB47" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:28">
+      <x:c r="AC47" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:29">
       <x:c r="B48" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>93247</x:v>
@@ -4578,12 +4715,15 @@
         <x:v>378773</x:v>
       </x:c>
       <x:c r="AB48" s="3" t="n">
-        <x:v>383613</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:28">
+        <x:v>383098</x:v>
+      </x:c>
+      <x:c r="AC48" s="3" t="n">
+        <x:v>402387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:29">
       <x:c r="B49" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>37684</x:v>
@@ -4661,12 +4801,15 @@
         <x:v>156092</x:v>
       </x:c>
       <x:c r="AB49" s="3" t="n">
-        <x:v>159663</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:28">
+        <x:v>159974</x:v>
+      </x:c>
+      <x:c r="AC49" s="3" t="n">
+        <x:v>167310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:29">
       <x:c r="B50" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>36369</x:v>
@@ -4744,12 +4887,15 @@
         <x:v>151190</x:v>
       </x:c>
       <x:c r="AB50" s="3" t="n">
-        <x:v>154672</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:28">
+        <x:v>154983</x:v>
+      </x:c>
+      <x:c r="AC50" s="3" t="n">
+        <x:v>162069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:29">
       <x:c r="B51" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>1313</x:v>
@@ -4829,10 +4975,13 @@
       <x:c r="AB51" s="3" t="n">
         <x:v>4991</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:28">
+      <x:c r="AC51" s="3" t="n">
+        <x:v>5240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:29">
       <x:c r="B52" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>55563</x:v>
@@ -4910,12 +5059,15 @@
         <x:v>222681</x:v>
       </x:c>
       <x:c r="AB52" s="3" t="n">
-        <x:v>223950</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:28">
+        <x:v>223124</x:v>
+      </x:c>
+      <x:c r="AC52" s="3" t="n">
+        <x:v>235077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:29">
       <x:c r="B53" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>49075</x:v>
@@ -4993,12 +5145,15 @@
         <x:v>196621</x:v>
       </x:c>
       <x:c r="AB53" s="3" t="n">
-        <x:v>197358</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:28">
+        <x:v>196532</x:v>
+      </x:c>
+      <x:c r="AC53" s="3" t="n">
+        <x:v>210563</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:29">
       <x:c r="B54" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>6489</x:v>
@@ -5078,13 +5233,16 @@
       <x:c r="AB54" s="3" t="n">
         <x:v>26592</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:28">
+      <x:c r="AC54" s="3" t="n">
+        <x:v>24514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:29">
       <x:c r="A55" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C55" s="3" t="n">
         <x:v>153503</x:v>
@@ -5162,12 +5320,15 @@
         <x:v>619007</x:v>
       </x:c>
       <x:c r="AB55" s="3" t="n">
-        <x:v>497441</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:28">
+        <x:v>514962</x:v>
+      </x:c>
+      <x:c r="AC55" s="3" t="n">
+        <x:v>850851</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:29">
       <x:c r="B56" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C56" s="3" t="n">
         <x:v>128259</x:v>
@@ -5245,12 +5406,15 @@
         <x:v>491941</x:v>
       </x:c>
       <x:c r="AB56" s="3" t="n">
-        <x:v>487501</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:28">
+        <x:v>490222</x:v>
+      </x:c>
+      <x:c r="AC56" s="3" t="n">
+        <x:v>547536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:29">
       <x:c r="B57" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C57" s="3" t="n">
         <x:v>113491</x:v>
@@ -5328,12 +5492,15 @@
         <x:v>388278</x:v>
       </x:c>
       <x:c r="AB57" s="3" t="n">
-        <x:v>393367</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:28">
+        <x:v>393615</x:v>
+      </x:c>
+      <x:c r="AC57" s="3" t="n">
+        <x:v>430330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:29">
       <x:c r="B58" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C58" s="3" t="n">
         <x:v>8947</x:v>
@@ -5411,12 +5578,15 @@
         <x:v>82431</x:v>
       </x:c>
       <x:c r="AB58" s="3" t="n">
-        <x:v>75675</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:28">
+        <x:v>77032</x:v>
+      </x:c>
+      <x:c r="AC58" s="3" t="n">
+        <x:v>95480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:29">
       <x:c r="B59" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C59" s="3" t="n">
         <x:v>5823</x:v>
@@ -5494,12 +5664,15 @@
         <x:v>17004</x:v>
       </x:c>
       <x:c r="AB59" s="3" t="n">
-        <x:v>16603</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:28">
+        <x:v>17719</x:v>
+      </x:c>
+      <x:c r="AC59" s="3" t="n">
+        <x:v>16482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:29">
       <x:c r="B60" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C60" s="3" t="n">
         <x:v>0</x:v>
@@ -5579,10 +5752,13 @@
       <x:c r="AB60" s="3" t="n">
         <x:v>1855</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:28">
+      <x:c r="AC60" s="3" t="n">
+        <x:v>5244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:29">
       <x:c r="B61" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C61" s="3" t="n">
         <x:v>20056</x:v>
@@ -5660,12 +5836,15 @@
         <x:v>114241</x:v>
       </x:c>
       <x:c r="AB61" s="3" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:28">
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="AC61" s="3" t="n">
+        <x:v>295000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:29">
       <x:c r="B62" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C62" s="3" t="n">
         <x:v>8767</x:v>
@@ -5743,12 +5922,15 @@
         <x:v>34034</x:v>
       </x:c>
       <x:c r="AB62" s="3" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:28">
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="AC62" s="3" t="n">
+        <x:v>115400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:29">
       <x:c r="B63" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C63" s="3" t="n">
         <x:v>11289</x:v>
@@ -5828,10 +6010,13 @@
       <x:c r="AB63" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:28">
+      <x:c r="AC63" s="3" t="n">
+        <x:v>179600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:29">
       <x:c r="B64" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C64" s="3" t="n">
         <x:v>5188</x:v>
@@ -5911,10 +6096,13 @@
       <x:c r="AB64" s="3" t="n">
         <x:v>7941</x:v>
       </x:c>
-    </x:row>
-    <x:row r="65" spans="1:28">
+      <x:c r="AC64" s="3" t="n">
+        <x:v>8315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:29">
       <x:c r="B65" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C65" s="3" t="n">
         <x:v>2664</x:v>
@@ -5994,10 +6182,13 @@
       <x:c r="AB65" s="3" t="n">
         <x:v>7640</x:v>
       </x:c>
-    </x:row>
-    <x:row r="66" spans="1:28">
+      <x:c r="AC65" s="3" t="n">
+        <x:v>8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:29">
       <x:c r="B66" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C66" s="3" t="n">
         <x:v>2081</x:v>
@@ -6077,10 +6268,13 @@
       <x:c r="AB66" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="67" spans="1:28">
+      <x:c r="AC66" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:29">
       <x:c r="B67" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C67" s="3" t="n">
         <x:v>0</x:v>
@@ -6160,10 +6354,13 @@
       <x:c r="AB67" s="3" t="n">
         <x:v>192</x:v>
       </x:c>
-    </x:row>
-    <x:row r="68" spans="1:28">
+      <x:c r="AC67" s="3" t="n">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:29">
       <x:c r="B68" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C68" s="3" t="n">
         <x:v>443</x:v>
@@ -6243,10 +6440,13 @@
       <x:c r="AB68" s="3" t="n">
         <x:v>108</x:v>
       </x:c>
-    </x:row>
-    <x:row r="69" spans="1:28">
+      <x:c r="AC68" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:29">
       <x:c r="B69" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C69" s="3" t="n">
         <x:v>143991</x:v>
@@ -6326,10 +6526,13 @@
       <x:c r="AB69" s="3" t="n">
         <x:v>444598</x:v>
       </x:c>
-    </x:row>
-    <x:row r="70" spans="1:28">
+      <x:c r="AC69" s="3" t="n">
+        <x:v>472727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:29">
       <x:c r="B70" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C70" s="3" t="n">
         <x:v>88609</x:v>
@@ -6409,10 +6612,13 @@
       <x:c r="AB70" s="3" t="n">
         <x:v>311600</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:28">
+      <x:c r="AC70" s="3" t="n">
+        <x:v>338000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:29">
       <x:c r="B71" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C71" s="3" t="n">
         <x:v>2718</x:v>
@@ -6492,10 +6698,13 @@
       <x:c r="AB71" s="3" t="n">
         <x:v>3905</x:v>
       </x:c>
-    </x:row>
-    <x:row r="72" spans="1:28">
+      <x:c r="AC71" s="3" t="n">
+        <x:v>4666</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:29">
       <x:c r="B72" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C72" s="3" t="n">
         <x:v>2559</x:v>
@@ -6575,10 +6784,13 @@
       <x:c r="AB72" s="3" t="n">
         <x:v>5714</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:28">
+      <x:c r="AC72" s="3" t="n">
+        <x:v>5302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:29">
       <x:c r="B73" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C73" s="3" t="n">
         <x:v>22319</x:v>
@@ -6658,10 +6870,13 @@
       <x:c r="AB73" s="3" t="n">
         <x:v>26721</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:28">
+      <x:c r="AC73" s="3" t="n">
+        <x:v>25894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:29">
       <x:c r="B74" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C74" s="3" t="n">
         <x:v>7484</x:v>
@@ -6741,10 +6956,13 @@
       <x:c r="AB74" s="3" t="n">
         <x:v>9329</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:28">
+      <x:c r="AC74" s="3" t="n">
+        <x:v>7813</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:29">
       <x:c r="B75" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C75" s="3" t="n">
         <x:v>561</x:v>
@@ -6824,10 +7042,13 @@
       <x:c r="AB75" s="3" t="n">
         <x:v>1602</x:v>
       </x:c>
-    </x:row>
-    <x:row r="76" spans="1:28">
+      <x:c r="AC75" s="3" t="n">
+        <x:v>1661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:29">
       <x:c r="B76" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C76" s="3" t="n">
         <x:v>1100</x:v>
@@ -6907,10 +7128,13 @@
       <x:c r="AB76" s="3" t="n">
         <x:v>1465</x:v>
       </x:c>
-    </x:row>
-    <x:row r="77" spans="1:28">
+      <x:c r="AC76" s="3" t="n">
+        <x:v>1471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:29">
       <x:c r="B77" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C77" s="3" t="n">
         <x:v>9935</x:v>
@@ -6990,10 +7214,13 @@
       <x:c r="AB77" s="3" t="n">
         <x:v>4401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="78" spans="1:28">
+      <x:c r="AC77" s="3" t="n">
+        <x:v>4431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:29">
       <x:c r="B78" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C78" s="3" t="n">
         <x:v>2804</x:v>
@@ -7073,10 +7300,13 @@
       <x:c r="AB78" s="3" t="n">
         <x:v>9588</x:v>
       </x:c>
-    </x:row>
-    <x:row r="79" spans="1:28">
+      <x:c r="AC78" s="3" t="n">
+        <x:v>10184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:29">
       <x:c r="B79" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C79" s="3" t="n">
         <x:v>6566</x:v>
@@ -7156,10 +7386,13 @@
       <x:c r="AB79" s="3" t="n">
         <x:v>28581</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:28">
+      <x:c r="AC79" s="3" t="n">
+        <x:v>30780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:29">
       <x:c r="B80" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C80" s="3" t="n">
         <x:v>4773</x:v>
@@ -7239,10 +7472,13 @@
       <x:c r="AB80" s="3" t="n">
         <x:v>11322</x:v>
       </x:c>
-    </x:row>
-    <x:row r="81" spans="1:28">
+      <x:c r="AC80" s="3" t="n">
+        <x:v>12071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:29">
       <x:c r="B81" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C81" s="3" t="n">
         <x:v>1391</x:v>
@@ -7322,10 +7558,13 @@
       <x:c r="AB81" s="3" t="n">
         <x:v>1880</x:v>
       </x:c>
-    </x:row>
-    <x:row r="82" spans="1:28">
+      <x:c r="AC81" s="3" t="n">
+        <x:v>1911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:29">
       <x:c r="B82" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C82" s="3" t="n">
         <x:v>0</x:v>
@@ -7405,10 +7644,13 @@
       <x:c r="AB82" s="3" t="n">
         <x:v>8442</x:v>
       </x:c>
-    </x:row>
-    <x:row r="83" spans="1:28">
+      <x:c r="AC82" s="3" t="n">
+        <x:v>9387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:29">
       <x:c r="B83" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C83" s="3" t="n">
         <x:v>208</x:v>
@@ -7488,10 +7730,13 @@
       <x:c r="AB83" s="3" t="n">
         <x:v>2485</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:28">
+      <x:c r="AC83" s="3" t="n">
+        <x:v>2766</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:29">
       <x:c r="B84" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C84" s="3" t="n">
         <x:v>0</x:v>
@@ -7571,10 +7816,13 @@
       <x:c r="AB84" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="85" spans="1:28">
+      <x:c r="AC84" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:29">
       <x:c r="B85" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C85" s="3" t="n">
         <x:v>0</x:v>
@@ -7654,10 +7902,13 @@
       <x:c r="AB85" s="3" t="n">
         <x:v>1643</x:v>
       </x:c>
-    </x:row>
-    <x:row r="86" spans="1:28">
+      <x:c r="AC85" s="3" t="n">
+        <x:v>1660</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:29">
       <x:c r="B86" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C86" s="3" t="n">
         <x:v>0</x:v>
@@ -7737,10 +7988,13 @@
       <x:c r="AB86" s="3" t="n">
         <x:v>2376</x:v>
       </x:c>
-    </x:row>
-    <x:row r="87" spans="1:28">
+      <x:c r="AC86" s="3" t="n">
+        <x:v>2495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:29">
       <x:c r="B87" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C87" s="3" t="n">
         <x:v>15207</x:v>
@@ -7820,10 +8074,13 @@
       <x:c r="AB87" s="3" t="n">
         <x:v>37553</x:v>
       </x:c>
-    </x:row>
-    <x:row r="88" spans="1:28">
+      <x:c r="AC87" s="3" t="n">
+        <x:v>34567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:29">
       <x:c r="B88" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C88" s="3" t="n">
         <x:v>6315</x:v>
@@ -7903,10 +8160,13 @@
       <x:c r="AB88" s="3" t="n">
         <x:v>17976</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:28">
+      <x:c r="AC88" s="3" t="n">
+        <x:v>18276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:29">
       <x:c r="B89" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C89" s="3" t="n">
         <x:v>5301</x:v>
@@ -7986,10 +8246,13 @@
       <x:c r="AB89" s="3" t="n">
         <x:v>9127</x:v>
       </x:c>
-    </x:row>
-    <x:row r="90" spans="1:28">
+      <x:c r="AC89" s="3" t="n">
+        <x:v>9232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:29">
       <x:c r="B90" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C90" s="3" t="n">
         <x:v>1514</x:v>
@@ -8069,10 +8332,13 @@
       <x:c r="AB90" s="3" t="n">
         <x:v>4777</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:28">
+      <x:c r="AC90" s="3" t="n">
+        <x:v>1125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:29">
       <x:c r="B91" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C91" s="3" t="n">
         <x:v>115</x:v>
@@ -8152,10 +8418,13 @@
       <x:c r="AB91" s="3" t="n">
         <x:v>340</x:v>
       </x:c>
-    </x:row>
-    <x:row r="92" spans="1:28">
+      <x:c r="AC91" s="3" t="n">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:29">
       <x:c r="B92" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C92" s="3" t="n">
         <x:v>1962</x:v>
@@ -8235,10 +8504,13 @@
       <x:c r="AB92" s="3" t="n">
         <x:v>5332</x:v>
       </x:c>
-    </x:row>
-    <x:row r="93" spans="1:28">
+      <x:c r="AC92" s="3" t="n">
+        <x:v>5577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:29">
       <x:c r="B93" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C93" s="3" t="n">
         <x:v>2898</x:v>
@@ -8318,10 +8590,13 @@
       <x:c r="AB93" s="3" t="n">
         <x:v>14818</x:v>
       </x:c>
-    </x:row>
-    <x:row r="94" spans="1:28">
+      <x:c r="AC93" s="3" t="n">
+        <x:v>15623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:29">
       <x:c r="B94" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C94" s="3" t="n">
         <x:v>3116</x:v>
@@ -8401,10 +8676,13 @@
       <x:c r="AB94" s="3" t="n">
         <x:v>15706</x:v>
       </x:c>
-    </x:row>
-    <x:row r="95" spans="1:28">
+      <x:c r="AC94" s="3" t="n">
+        <x:v>17895</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:29">
       <x:c r="B95" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C95" s="3" t="n">
         <x:v>1350</x:v>
@@ -8484,10 +8762,13 @@
       <x:c r="AB95" s="3" t="n">
         <x:v>11352</x:v>
       </x:c>
-    </x:row>
-    <x:row r="96" spans="1:28">
+      <x:c r="AC95" s="3" t="n">
+        <x:v>13196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:29">
       <x:c r="B96" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C96" s="3" t="n">
         <x:v>975</x:v>
@@ -8567,10 +8848,13 @@
       <x:c r="AB96" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="97" spans="1:28">
+      <x:c r="AC96" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:29">
       <x:c r="B97" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C97" s="3" t="n">
         <x:v>975</x:v>
@@ -8650,10 +8934,13 @@
       <x:c r="AB97" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="98" spans="1:28">
+      <x:c r="AC97" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:29">
       <x:c r="B98" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C98" s="3" t="n">
         <x:v>93846</x:v>
@@ -8731,12 +9018,15 @@
         <x:v>382860</x:v>
       </x:c>
       <x:c r="AB98" s="3" t="n">
-        <x:v>387770</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:28">
+        <x:v>387255</x:v>
+      </x:c>
+      <x:c r="AC98" s="3" t="n">
+        <x:v>406722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:29">
       <x:c r="B99" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C99" s="3" t="n">
         <x:v>37684</x:v>
@@ -8814,12 +9104,15 @@
         <x:v>156092</x:v>
       </x:c>
       <x:c r="AB99" s="3" t="n">
-        <x:v>159663</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:28">
+        <x:v>159974</x:v>
+      </x:c>
+      <x:c r="AC99" s="3" t="n">
+        <x:v>167310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:29">
       <x:c r="B100" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C100" s="3" t="n">
         <x:v>36369</x:v>
@@ -8897,12 +9190,15 @@
         <x:v>151190</x:v>
       </x:c>
       <x:c r="AB100" s="3" t="n">
-        <x:v>154672</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:28">
+        <x:v>154983</x:v>
+      </x:c>
+      <x:c r="AC100" s="3" t="n">
+        <x:v>162069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:29">
       <x:c r="B101" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C101" s="3" t="n">
         <x:v>1313</x:v>
@@ -8982,10 +9278,13 @@
       <x:c r="AB101" s="3" t="n">
         <x:v>4991</x:v>
       </x:c>
-    </x:row>
-    <x:row r="102" spans="1:28">
+      <x:c r="AC101" s="3" t="n">
+        <x:v>5240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:29">
       <x:c r="B102" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C102" s="3" t="n">
         <x:v>56162</x:v>
@@ -9063,12 +9362,15 @@
         <x:v>226768</x:v>
       </x:c>
       <x:c r="AB102" s="3" t="n">
-        <x:v>228107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:28">
+        <x:v>227281</x:v>
+      </x:c>
+      <x:c r="AC102" s="3" t="n">
+        <x:v>239412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:29">
       <x:c r="B103" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C103" s="3" t="n">
         <x:v>49075</x:v>
@@ -9146,12 +9448,15 @@
         <x:v>196621</x:v>
       </x:c>
       <x:c r="AB103" s="3" t="n">
-        <x:v>197358</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:28">
+        <x:v>196532</x:v>
+      </x:c>
+      <x:c r="AC103" s="3" t="n">
+        <x:v>210563</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:29">
       <x:c r="B104" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C104" s="3" t="n">
         <x:v>7088</x:v>
@@ -9231,143 +9536,149 @@
       <x:c r="AB104" s="3" t="n">
         <x:v>30749</x:v>
       </x:c>
-    </x:row>
-    <x:row r="106" spans="1:28">
+      <x:c r="AC104" s="3" t="n">
+        <x:v>28849</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:29">
       <x:c r="A106" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:28">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:29">
       <x:c r="A107" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:28">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:29">
       <x:c r="A108" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:28">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:29">
       <x:c r="A111" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:28">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:29">
       <x:c r="A112" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:28">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:29">
       <x:c r="A113" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:29">
+      <x:c r="A115" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:29">
+      <x:c r="A116" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:29">
+      <x:c r="A118" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:29">
+      <x:c r="A119" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:28">
-      <x:c r="A115" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:28">
-      <x:c r="A116" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:28">
-      <x:c r="A118" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:28">
-      <x:c r="A119" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:28">
+    <x:row r="120" spans="1:29">
       <x:c r="A120" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:28">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:29">
       <x:c r="A121" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:28">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:29">
       <x:c r="A122" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:28">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:29">
       <x:c r="A126" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:28">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:29">
       <x:c r="A128" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:28">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:29">
       <x:c r="A129" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:28">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:29">
       <x:c r="A130" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="1:28">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:29">
       <x:c r="A131" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:28">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:29">
       <x:c r="A132" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:28">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:29">
       <x:c r="A133" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:28">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:29">
       <x:c r="A135" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:28">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:29">
       <x:c r="A136" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:28">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:29">
       <x:c r="A137" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="1:28">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:29">
       <x:c r="A144" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:28">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:29">
       <x:c r="A145" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="147" spans="1:28">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:29">
       <x:c r="A147" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="148" spans="1:28">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:29">
       <x:c r="A148" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A108:AC108"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
